--- a/Registors.xlsx
+++ b/Registors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10563\Desktop\5190\ese5190-2022-lab2-into-the-void-star\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B3532C-6763-432E-A126-E00EC3832C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC76F6F-417B-4A41-BB25-5271E756A598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" xr2:uid="{AE96FC25-AF25-467D-ACC8-B04C4DA6AF76}"/>
   </bookViews>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C753C94C-C595-45D9-83FB-25C965AA90C2}">
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -4222,11 +4222,11 @@
         <v>118</v>
       </c>
       <c r="M68" s="1" t="str">
-        <f t="shared" ref="M68:M99" si="15">REPT(0,3-LEN(L68))&amp;L68</f>
+        <f t="shared" ref="M68:M71" si="15">REPT(0,3-LEN(L68))&amp;L68</f>
         <v>118</v>
       </c>
       <c r="N68" s="1" t="str">
-        <f t="shared" ref="N68:N99" si="16">_xlfn.CONCAT("0x",M68)</f>
+        <f t="shared" ref="N68:N71" si="16">_xlfn.CONCAT("0x",M68)</f>
         <v>0x118</v>
       </c>
       <c r="O68" s="1">
@@ -4242,7 +4242,7 @@
         <v>50200118</v>
       </c>
       <c r="R68" s="1" t="str">
-        <f t="shared" ref="R68:R99" si="17">_xlfn.CONCAT("0x",Q68)</f>
+        <f t="shared" ref="R68:R71" si="17">_xlfn.CONCAT("0x",Q68)</f>
         <v>0x50200118</v>
       </c>
       <c r="T68" s="1">
